--- a/DemoMavenProject/src/test/resources/vTigerTestData.xlsx
+++ b/DemoMavenProject/src/test/resources/vTigerTestData.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>vTiger_0123</t>
   </si>
@@ -31,6 +34,15 @@
   </si>
   <si>
     <t>Life Style</t>
+  </si>
+  <si>
+    <t>vTiger_5543</t>
+  </si>
+  <si>
+    <t>dress</t>
+  </si>
+  <si>
+    <t>vTiger_6356</t>
   </si>
 </sst>
 </file>
@@ -374,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,4 +499,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>